--- a/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Magán\Pénzügyi kimutatások\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Financials\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E377E231-092C-4578-A3EE-AF47E1817DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE4E38-2CB7-4FC8-A52A-3341414A0C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2050" windowWidth="14400" windowHeight="7360" xr2:uid="{51692768-232A-470E-BD8B-8027F257305D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51692768-232A-470E-BD8B-8027F257305D}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Megnevezések</t>
   </si>
@@ -84,16 +84,18 @@
   </si>
   <si>
     <t>büfé, póló</t>
+  </si>
+  <si>
+    <t>2 vidéki cipó, palizer, medium sajt, Topjoy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;Ft&quot;"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -301,19 +303,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -324,6 +319,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,24 +647,24 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -690,7 +694,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -701,7 +705,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>45201</v>
       </c>
@@ -715,7 +719,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>45202</v>
       </c>
@@ -729,7 +733,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>45203</v>
       </c>
@@ -743,7 +747,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>45204</v>
       </c>
@@ -757,7 +761,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>45205</v>
       </c>
@@ -771,12 +775,12 @@
       <c r="E9" s="12"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="12"/>
       <c r="E10" s="16"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -787,76 +791,76 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>45208</v>
       </c>
       <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>45209</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>45210</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>45211</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>45212</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="12"/>
       <c r="E18" s="16"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="11">
         <f>F17-E18</f>
         <v>0</v>
@@ -864,76 +868,80 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>45215</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="28">
+        <v>2964</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>45216</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>45217</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="23"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>45218</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>45219</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="22"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="12"/>
       <c r="E26" s="16"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="11">
         <f>F25-E26</f>
         <v>0</v>
@@ -941,127 +949,127 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>45222</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>45223</v>
       </c>
       <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>45224</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>45225</v>
       </c>
       <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>45226</v>
       </c>
       <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="12"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="27"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="27"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="26"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Financials\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE4E38-2CB7-4FC8-A52A-3341414A0C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D375AA0A-3E22-455C-B2F1-AC89E9C2C2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51692768-232A-470E-BD8B-8027F257305D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Megnevezések</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>2 vidéki cipó, palizer, medium sajt, Topjoy</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>2 liter tej, 2 párizsi, trapista sajt, cipó</t>
+  </si>
+  <si>
+    <t>víz</t>
+  </si>
+  <si>
+    <t>Kártya</t>
+  </si>
+  <si>
+    <t>Frei limók</t>
   </si>
 </sst>
 </file>
@@ -647,7 +662,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,8 +810,12 @@
       <c r="A12" s="17">
         <v>45208</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="26">
+        <v>3704</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -805,8 +824,12 @@
       <c r="A13" s="17">
         <v>45209</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1314</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -846,13 +869,18 @@
       <c r="C17" s="27"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9">
+        <v>11004</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="27"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="16">
+        <f>SUM(C20:C24)</f>
+        <v>4664</v>
+      </c>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -863,7 +891,7 @@
       <c r="C19" s="27"/>
       <c r="D19" s="11">
         <f>F17-E18</f>
-        <v>0</v>
+        <v>6340</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -886,8 +914,12 @@
       <c r="A21" s="17">
         <v>45216</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="28">
+        <v>1700</v>
+      </c>
       <c r="D21" s="25"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -896,10 +928,16 @@
       <c r="A22" s="17">
         <v>45217</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="C22" s="28"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2100</v>
+      </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">

--- a/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Financials\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D375AA0A-3E22-455C-B2F1-AC89E9C2C2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13259DF9-B76B-4580-9D04-C82D7B597B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51692768-232A-470E-BD8B-8027F257305D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Megnevezések</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Frei limók</t>
+  </si>
+  <si>
+    <t>pia</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +882,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="16">
         <f>SUM(C20:C24)</f>
-        <v>4664</v>
+        <v>6164</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -891,7 +894,7 @@
       <c r="C19" s="27"/>
       <c r="D19" s="11">
         <f>F17-E18</f>
-        <v>6340</v>
+        <v>4840</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -944,8 +947,12 @@
       <c r="A23" s="17">
         <v>45218</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="28">
+        <v>1500</v>
+      </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>

--- a/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Financials\Pénzügyi kimutatások\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Magán\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13259DF9-B76B-4580-9D04-C82D7B597B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ACB7A9-4AC9-4412-9B0F-5B7DC4115A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51692768-232A-470E-BD8B-8027F257305D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51692768-232A-470E-BD8B-8027F257305D}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -664,25 +664,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9574295-CDF3-403C-B3D2-36FE79C81545}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -712,7 +712,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>45201</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>45202</v>
       </c>
@@ -751,7 +751,7 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>45203</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>45204</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>45205</v>
       </c>
@@ -793,12 +793,12 @@
       <c r="E9" s="12"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="12"/>
       <c r="E10" s="16"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>45208</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>45209</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>45210</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>45211</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>45212</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
       <c r="C17" s="27"/>
       <c r="D17" s="12"/>
@@ -876,7 +876,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="7"/>
       <c r="C18" s="27"/>
       <c r="D18" s="12"/>
@@ -886,7 +886,7 @@
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>45215</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <v>45216</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>45217</v>
       </c>
@@ -943,7 +943,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>45218</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>45219</v>
       </c>
@@ -967,21 +967,26 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
       <c r="C25" s="27"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="9">
+        <v>30740</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
       <c r="C26" s="27"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="16">
+        <f>SUM(C28:C32)</f>
+        <v>0</v>
+      </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
@@ -989,12 +994,12 @@
       <c r="C27" s="27"/>
       <c r="D27" s="11">
         <f>F25-E26</f>
-        <v>0</v>
+        <v>30740</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>45222</v>
       </c>
@@ -1004,7 +1009,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>45223</v>
       </c>
@@ -1014,7 +1019,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>45224</v>
       </c>
@@ -1024,7 +1029,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>45225</v>
       </c>
@@ -1034,7 +1039,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>45226</v>
       </c>
@@ -1044,7 +1049,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -1052,7 +1057,7 @@
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -1060,7 +1065,7 @@
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -1068,7 +1073,7 @@
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="24"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
@@ -1076,7 +1081,7 @@
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
@@ -1084,7 +1089,7 @@
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="24"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
@@ -1092,7 +1097,7 @@
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="24"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
@@ -1100,7 +1105,7 @@
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="24"/>
       <c r="B41" s="22"/>
       <c r="C41" s="23"/>
@@ -1108,7 +1113,7 @@
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>

--- a/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Magán\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41ACB7A9-4AC9-4412-9B0F-5B7DC4115A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC65C1E9-C489-448C-99EB-F1A67A891A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51692768-232A-470E-BD8B-8027F257305D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Megnevezések</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>pia</t>
+  </si>
+  <si>
+    <t>zsepi</t>
+  </si>
+  <si>
+    <t>3 palizer, 2 sajt, 2 kenyér</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,7 +988,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="16">
         <f>SUM(C28:C32)</f>
-        <v>0</v>
+        <v>4563</v>
       </c>
       <c r="F26" s="12"/>
     </row>
@@ -994,7 +1000,7 @@
       <c r="C27" s="27"/>
       <c r="D27" s="11">
         <f>F25-E26</f>
-        <v>30740</v>
+        <v>26177</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -1003,8 +1009,12 @@
       <c r="A28" s="17">
         <v>45222</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="26">
+        <v>600</v>
+      </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -1013,8 +1023,12 @@
       <c r="A29" s="17">
         <v>45223</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="26">
+        <v>3963</v>
+      </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>

--- a/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2023 Október pénzügyi kimutatás.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Magán\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC65C1E9-C489-448C-99EB-F1A67A891A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C009E04F-25DA-4B05-8CDD-772CC46A5B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51692768-232A-470E-BD8B-8027F257305D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Megnevezések</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>3 palizer, 2 sajt, 2 kenyér</t>
+  </si>
+  <si>
+    <t>Pepsi Lime</t>
   </si>
 </sst>
 </file>
@@ -670,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9574295-CDF3-403C-B3D2-36FE79C81545}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,7 +991,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="16">
         <f>SUM(C28:C32)</f>
-        <v>4563</v>
+        <v>4883</v>
       </c>
       <c r="F26" s="12"/>
     </row>
@@ -1000,7 +1003,7 @@
       <c r="C27" s="27"/>
       <c r="D27" s="11">
         <f>F25-E26</f>
-        <v>26177</v>
+        <v>25857</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -1047,8 +1050,12 @@
       <c r="A31" s="17">
         <v>45225</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="26">
+        <v>320</v>
+      </c>
       <c r="D31" s="12"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
